--- a/德福词汇/可分动词.xlsx
+++ b/德福词汇/可分动词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/德语/Deutsch/德福词汇/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A35CD0-93AE-124F-9D4A-CF997A3F730A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17821F22-73C8-3D40-8952-BE5450C18A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="2" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="6" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
   </bookViews>
   <sheets>
     <sheet name="不常用可分前缀" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="auf" sheetId="5" r:id="rId4"/>
     <sheet name="aus" sheetId="9" r:id="rId5"/>
     <sheet name="ein" sheetId="10" r:id="rId6"/>
+    <sheet name="vor" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="403">
   <si>
     <t>abnehmen</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1694,12 +1695,160 @@
     <t>verweigern</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>vorbereiten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vorbeugen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vorgeben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vorgehen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vorhanden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vorliegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vorlegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r,Vorrang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r,Vorrat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vorspringen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vorstellen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vorschreiben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vortragen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vorübergehend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vorwerfen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vorziehen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事先设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vorrätig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有库存的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r,Vorsprung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领先，优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想象，自我介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批评，指责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏爱，喜爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bevorzugen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begünstigen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1748,6 +1897,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1771,7 +1927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1785,6 +1941,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2118,11 +2277,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
@@ -2141,10 +2300,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
@@ -2171,10 +2330,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
@@ -2193,10 +2352,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
@@ -2220,10 +2379,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
@@ -2290,10 +2449,10 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
@@ -2312,10 +2471,10 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="5"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
@@ -2350,10 +2509,10 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
@@ -2400,7 +2559,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
@@ -2408,7 +2567,7 @@
     <col min="1" max="1" width="8.6640625" style="2"/>
     <col min="2" max="2" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="2"/>
     <col min="7" max="7" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -2488,7 +2647,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>89</v>
@@ -2533,7 +2692,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>78</v>
@@ -2602,7 +2761,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>220</v>
@@ -2735,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6F304F-FBA0-4E8D-87CD-45711FB43F03}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
@@ -2744,7 +2903,7 @@
     <col min="1" max="1" width="8.6640625" style="2"/>
     <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="2"/>
+    <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.6640625" style="2"/>
@@ -2752,27 +2911,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>119</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="F1" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>107</v>
@@ -2780,41 +2940,43 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>126</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="F3" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="F4" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2822,10 +2984,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2833,211 +2995,218 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>154</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>166</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>167</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>120</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -3047,8 +3216,9 @@
       <c r="C26" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -3059,7 +3229,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -3071,8 +3241,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F28">
-    <sortCondition descending="1" ref="A10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D28">
+    <sortCondition descending="1" ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4171,4 +4341,172 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE4E028-4D5D-BE45-9B0D-ED403C2D5851}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/德福词汇/可分动词.xlsx
+++ b/德福词汇/可分动词.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11017"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/德语/Deutsch/德福词汇/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17821F22-73C8-3D40-8952-BE5450C18A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{17821F22-73C8-3D40-8952-BE5450C18A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{171D4B25-46A0-264B-9173-E5501F71224A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="6" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="3" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
   </bookViews>
   <sheets>
     <sheet name="不常用可分前缀" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="ein" sheetId="10" r:id="rId6"/>
     <sheet name="vor" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="433">
   <si>
     <t>abnehmen</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -951,18 +951,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>突然发生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>过程的结果和终止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aufräumen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1311,10 +1303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>证明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>称重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1340,10 +1328,6 @@
   </si>
   <si>
     <t>ausführlich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平衡，抵消，补偿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1843,12 +1827,18 @@
     <t>begünstigen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>过程的结果和终止</t>
+  </si>
+  <si>
+    <t>打开</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2269,21 +2259,21 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.65625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="24.79296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.65625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -2291,7 +2281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2299,13 +2289,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2313,7 +2303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2321,7 +2311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2329,13 +2319,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2343,7 +2333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -2351,13 +2341,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -2365,12 +2355,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -2378,13 +2368,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -2392,7 +2382,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -2400,7 +2390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -2408,7 +2398,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -2416,7 +2406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -2424,7 +2414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -2432,7 +2422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -2440,7 +2430,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -2448,13 +2438,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -2462,7 +2452,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -2470,13 +2460,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -2484,7 +2474,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>49</v>
       </c>
@@ -2492,7 +2482,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
@@ -2500,7 +2490,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
@@ -2508,13 +2498,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>58</v>
       </c>
@@ -2522,7 +2512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
@@ -2530,7 +2520,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
@@ -2562,19 +2552,19 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.65625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2"/>
-    <col min="2" max="2" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="2"/>
-    <col min="7" max="7" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="8.65625" style="2"/>
+    <col min="2" max="2" width="23.60546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.62109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.98046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.51953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.65625" style="2"/>
+    <col min="7" max="7" width="13.87890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.65625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>2</v>
       </c>
@@ -2589,7 +2579,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -2603,7 +2593,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2617,7 +2607,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2631,7 +2621,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2645,7 +2635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2653,10 +2643,10 @@
         <v>89</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2664,10 +2654,10 @@
         <v>70</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -2679,7 +2669,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -2690,7 +2680,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -2698,10 +2688,10 @@
         <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -2712,7 +2702,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -2723,7 +2713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -2734,7 +2724,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -2745,10 +2735,10 @@
         <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -2759,30 +2749,30 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -2793,7 +2783,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -2801,10 +2791,10 @@
         <v>84</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -2815,18 +2805,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -2837,7 +2827,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -2848,7 +2838,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -2859,7 +2849,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -2870,7 +2860,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -2898,18 +2888,18 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.65625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2"/>
-    <col min="2" max="2" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="8.65625" style="2"/>
+    <col min="2" max="2" width="28.9453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.70703125" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.87890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.828125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.62109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.65625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>2</v>
       </c>
@@ -2924,7 +2914,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -2938,7 +2928,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2953,7 +2943,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2968,7 +2958,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2979,7 +2969,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2990,7 +2980,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -3002,7 +2992,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -3014,7 +3004,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -3026,7 +3016,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -3038,7 +3028,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -3050,7 +3040,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -3061,7 +3051,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -3073,7 +3063,7 @@
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -3084,7 +3074,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -3096,7 +3086,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -3107,7 +3097,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -3118,7 +3108,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -3129,7 +3119,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -3140,7 +3130,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -3151,7 +3141,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -3162,7 +3152,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -3173,7 +3163,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -3184,7 +3174,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -3195,7 +3185,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -3206,7 +3196,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -3218,7 +3208,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -3229,7 +3219,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -3251,25 +3241,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6BE7AA-C83F-4679-B33C-E3B146631640}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.65625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="2"/>
-    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.70703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.62109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.65625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>171</v>
@@ -3277,264 +3266,265 @@
       <c r="C1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C23">
-    <sortCondition descending="1" ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFC1048576">
+    <sortCondition descending="1" ref="A1:A1048576"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3549,437 +3539,437 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.65625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2"/>
-    <col min="2" max="2" width="42.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="2"/>
-    <col min="7" max="7" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="8.65625" style="2"/>
+    <col min="2" max="2" width="42.46875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.70703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.65625" style="2"/>
+    <col min="7" max="7" width="11.859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.65625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D10" s="2" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="E25" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C23" s="3" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G25" s="3" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2">
-        <v>0</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C31" s="3" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C32" s="3" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C34" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>0</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3996,197 +3986,197 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.65625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2"/>
-    <col min="2" max="2" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.65625" style="2"/>
+    <col min="2" max="2" width="32.02734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.70703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="2"/>
+    <col min="7" max="16384" width="8.65625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -4194,144 +4184,144 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D21" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C19" s="2" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4347,162 +4337,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE4E028-4D5D-BE45-9B0D-ED403C2D5851}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="19.3359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.98046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.79296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/德福词汇/可分动词.xlsx
+++ b/德福词汇/可分动词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeziyang/Desktop/德语/Deutsch/德福词汇/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{17821F22-73C8-3D40-8952-BE5450C18A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{171D4B25-46A0-264B-9173-E5501F71224A}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{17821F22-73C8-3D40-8952-BE5450C18A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F3764D8D-B7BA-4048-AB2A-1BB8A3178403}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="3" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" activeTab="5" xr2:uid="{4A66A67D-3FAE-574D-A60A-EB53A4FCF65B}"/>
   </bookViews>
   <sheets>
     <sheet name="不常用可分前缀" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="431">
   <si>
     <t>abnehmen</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1832,6 +1832,15 @@
   </si>
   <si>
     <t>打开</t>
+  </si>
+  <si>
+    <t>e,Ausgabe</t>
+  </si>
+  <si>
+    <t>Ausstellung</t>
+  </si>
+  <si>
+    <t>包含在内</t>
   </si>
 </sst>
 </file>
@@ -3243,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6BE7AA-C83F-4679-B33C-E3B146631640}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.65625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
@@ -3314,7 +3323,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>168</v>
@@ -3325,35 +3334,35 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3361,10 +3370,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3372,10 +3381,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3523,7 +3532,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFC1048576">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD1048576">
     <sortCondition descending="1" ref="A1:A1048576"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3535,79 +3544,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0FDFBE-9226-4B02-BC9A-6623ED415C63}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.65625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.65625" style="2"/>
-    <col min="2" max="2" width="42.46875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.70703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.23046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.70703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.3359375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.65625" style="2"/>
     <col min="7" max="7" width="11.859375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.65625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>225</v>
@@ -3616,128 +3625,125 @@
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3745,10 +3751,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>270</v>
+        <v>284</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -3756,10 +3765,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3767,10 +3776,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -3778,21 +3790,21 @@
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3800,44 +3812,32 @@
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3845,43 +3845,55 @@
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3889,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -3900,10 +3912,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>277</v>
+        <v>296</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -3911,21 +3926,21 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3933,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3944,10 +3959,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>279</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3955,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3966,13 +3981,16 @@
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD1048576">
+    <sortCondition descending="1" ref="A1:A1048576"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3982,15 +4000,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF7B7D4-3A72-4FF9-9D13-4441C9A30C8A}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.65625" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.65625" style="2"/>
     <col min="2" max="2" width="32.02734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.70703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.70703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.69140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -3999,7 +4017,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>299</v>
@@ -4010,7 +4028,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>301</v>
@@ -4021,7 +4039,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>302</v>
@@ -4032,7 +4050,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>304</v>
@@ -4043,7 +4061,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>306</v>
@@ -4054,7 +4072,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>307</v>
@@ -4065,7 +4083,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>308</v>
@@ -4076,7 +4094,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>309</v>
@@ -4090,7 +4108,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>310</v>
@@ -4101,7 +4119,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>323</v>
@@ -4112,7 +4130,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>324</v>
@@ -4123,7 +4141,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>359</v>
@@ -4251,7 +4269,7 @@
         <v>321</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>334</v>
+        <v>403</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>322</v>
@@ -4270,7 +4288,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>326</v>
